--- a/config/excel/CostLoot.xlsx
+++ b/config/excel/CostLoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="CostLoot" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -127,7 +127,19 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>测试数据</t>
+    <t>装备突破1次消耗</t>
+  </si>
+  <si>
+    <t>装备突破2次消耗</t>
+  </si>
+  <si>
+    <t>装备突破3次消耗</t>
+  </si>
+  <si>
+    <t>装备突破4次消耗</t>
+  </si>
+  <si>
+    <t>装备突破5次消耗</t>
   </si>
 </sst>
 </file>
@@ -135,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -161,7 +173,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,16 +200,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,31 +229,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,55 +299,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,14 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -338,13 +350,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,67 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,73 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,29 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,17 +650,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,175 +704,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,54 +886,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2069,27 +2081,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3557692307692" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3557692307692" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6153846153846" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="8" width="6.30769230769231" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.9230769230769" style="1" customWidth="1"/>
-    <col min="11" max="14" width="6.30769230769231" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="16" max="20" width="6.30769230769231" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.9615384615385" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="8" width="6.30833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.925" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.925" style="1" customWidth="1"/>
+    <col min="11" max="14" width="6.30833333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.30833333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="1" customWidth="1"/>
+    <col min="18" max="20" width="6.30833333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.9583333333333" style="1" customWidth="1"/>
     <col min="22" max="16383" width="6" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="6" style="1"/>
   </cols>
@@ -2119,7 +2133,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="84" spans="1:21">
+    <row r="2" ht="70.5" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2336,7 +2350,7 @@
         <v>0,1,-1,-1,-1</v>
       </c>
       <c r="J7" s="9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -2352,13 +2366,13 @@
       </c>
       <c r="O7" s="12" t="str">
         <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
-        <v>1,0,-1,-1,-1</v>
+        <v>50,0,-1,-1,-1</v>
       </c>
       <c r="P7" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="9">
-        <v>999</v>
+        <v>3875</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
@@ -2371,7 +2385,267 @@
       </c>
       <c r="U7" s="12" t="str">
         <f>P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7</f>
-        <v>2,999,0,0,0</v>
+        <v>15,3875,0,0,0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:21">
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="12" t="str">
+        <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>51</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f>J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8&amp;","&amp;N8</f>
+        <v>51,0,-1,-1,-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>16125</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12" t="str">
+        <f>P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
+        <v>35,16125,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:21">
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="12" t="str">
+        <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>52</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f>J9&amp;","&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9</f>
+        <v>52,0,-1,-1,-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>43375</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12" t="str">
+        <f>P9&amp;","&amp;Q9&amp;","&amp;R9&amp;","&amp;S9&amp;","&amp;T9</f>
+        <v>65,43375,0,0,0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:21">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="12" t="str">
+        <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>53</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="12" t="str">
+        <f>J10&amp;","&amp;K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10</f>
+        <v>53,0,-1,-1,-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>91625</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f>P10&amp;","&amp;Q10&amp;","&amp;R10&amp;","&amp;S10&amp;","&amp;T10</f>
+        <v>85,91625,0,0,0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:21">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="12" t="str">
+        <f>D11&amp;","&amp;E11&amp;","&amp;F11&amp;","&amp;G11&amp;","&amp;H11</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>54</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="12" t="str">
+        <f>J11&amp;","&amp;K11&amp;","&amp;L11&amp;","&amp;M11&amp;","&amp;N11</f>
+        <v>54,0,-1,-1,-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>166875</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12" t="str">
+        <f>P11&amp;","&amp;Q11&amp;","&amp;R11&amp;","&amp;S11&amp;","&amp;T11</f>
+        <v>105,166875,0,0,0</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/CostLoot.xlsx
+++ b/config/excel/CostLoot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="248">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -810,600 +810,6 @@
     <t>404</t>
   </si>
   <si>
-    <t>装备升到2级消耗金币</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>装备升到3级消耗金币</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>装备升到4级消耗金币</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>装备升到5级消耗金币</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>装备升到6级消耗金币</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>装备升到7级消耗金币</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>装备升到8级消耗金币</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>装备升到9级消耗金币</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>装备升到10级消耗金币</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>装备升到11级消耗金币</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>装备升到12级消耗金币</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>装备升到13级消耗金币</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>装备升到14级消耗金币</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>装备升到15级消耗金币</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>装备升到16级消耗金币</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>装备升到17级消耗金币</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>装备升到18级消耗金币</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>装备升到19级消耗金币</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>装备升到20级消耗金币</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>装备升到21级消耗金币</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>装备升到22级消耗金币</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>装备升到23级消耗金币</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>装备升到24级消耗金币</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>装备升到25级消耗金币</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>装备升到26级消耗金币</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>装备升到27级消耗金币</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>装备升到28级消耗金币</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>装备升到29级消耗金币</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>装备升到30级消耗金币</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>装备升到31级消耗金币</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>装备升到32级消耗金币</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>装备升到33级消耗金币</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>装备升到34级消耗金币</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>装备升到35级消耗金币</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>装备升到36级消耗金币</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>装备升到37级消耗金币</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>装备升到38级消耗金币</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>装备升到39级消耗金币</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>装备升到40级消耗金币</t>
-  </si>
-  <si>
-    <t>1038</t>
-  </si>
-  <si>
-    <t>装备升到41级消耗金币</t>
-  </si>
-  <si>
-    <t>1039</t>
-  </si>
-  <si>
-    <t>装备升到42级消耗金币</t>
-  </si>
-  <si>
-    <t>1040</t>
-  </si>
-  <si>
-    <t>装备升到43级消耗金币</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>装备升到44级消耗金币</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>装备升到45级消耗金币</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>装备升到46级消耗金币</t>
-  </si>
-  <si>
-    <t>1044</t>
-  </si>
-  <si>
-    <t>装备升到47级消耗金币</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>装备升到48级消耗金币</t>
-  </si>
-  <si>
-    <t>1046</t>
-  </si>
-  <si>
-    <t>装备升到49级消耗金币</t>
-  </si>
-  <si>
-    <t>1047</t>
-  </si>
-  <si>
-    <t>装备升到50级消耗金币</t>
-  </si>
-  <si>
-    <t>1048</t>
-  </si>
-  <si>
-    <t>装备升到51级消耗金币</t>
-  </si>
-  <si>
-    <t>1049</t>
-  </si>
-  <si>
-    <t>装备升到52级消耗金币</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>装备升到53级消耗金币</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>装备升到54级消耗金币</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>装备升到55级消耗金币</t>
-  </si>
-  <si>
-    <t>1053</t>
-  </si>
-  <si>
-    <t>装备升到56级消耗金币</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>装备升到57级消耗金币</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>装备升到58级消耗金币</t>
-  </si>
-  <si>
-    <t>1056</t>
-  </si>
-  <si>
-    <t>装备升到59级消耗金币</t>
-  </si>
-  <si>
-    <t>1057</t>
-  </si>
-  <si>
-    <t>装备升到60级消耗金币</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>装备升到61级消耗金币</t>
-  </si>
-  <si>
-    <t>1059</t>
-  </si>
-  <si>
-    <t>装备升到62级消耗金币</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>装备升到63级消耗金币</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>装备升到64级消耗金币</t>
-  </si>
-  <si>
-    <t>1062</t>
-  </si>
-  <si>
-    <t>装备升到65级消耗金币</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>装备升到66级消耗金币</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>装备升到67级消耗金币</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>装备升到68级消耗金币</t>
-  </si>
-  <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>装备升到69级消耗金币</t>
-  </si>
-  <si>
-    <t>1067</t>
-  </si>
-  <si>
-    <t>装备升到70级消耗金币</t>
-  </si>
-  <si>
-    <t>1068</t>
-  </si>
-  <si>
-    <t>装备升到71级消耗金币</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>装备升到72级消耗金币</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>装备升到73级消耗金币</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>装备升到74级消耗金币</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>装备升到75级消耗金币</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>装备升到76级消耗金币</t>
-  </si>
-  <si>
-    <t>1074</t>
-  </si>
-  <si>
-    <t>装备升到77级消耗金币</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>装备升到78级消耗金币</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>装备升到79级消耗金币</t>
-  </si>
-  <si>
-    <t>1077</t>
-  </si>
-  <si>
-    <t>装备升到80级消耗金币</t>
-  </si>
-  <si>
-    <t>1078</t>
-  </si>
-  <si>
-    <t>装备升到81级消耗金币</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>装备升到82级消耗金币</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>装备升到83级消耗金币</t>
-  </si>
-  <si>
-    <t>1081</t>
-  </si>
-  <si>
-    <t>装备升到84级消耗金币</t>
-  </si>
-  <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>装备升到85级消耗金币</t>
-  </si>
-  <si>
-    <t>1083</t>
-  </si>
-  <si>
-    <t>装备升到86级消耗金币</t>
-  </si>
-  <si>
-    <t>1084</t>
-  </si>
-  <si>
-    <t>装备升到87级消耗金币</t>
-  </si>
-  <si>
-    <t>1085</t>
-  </si>
-  <si>
-    <t>装备升到88级消耗金币</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>装备升到89级消耗金币</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>装备升到90级消耗金币</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>装备升到91级消耗金币</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>装备升到92级消耗金币</t>
-  </si>
-  <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>装备升到93级消耗金币</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>装备升到94级消耗金币</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>装备升到95级消耗金币</t>
-  </si>
-  <si>
-    <t>1093</t>
-  </si>
-  <si>
-    <t>装备升到96级消耗金币</t>
-  </si>
-  <si>
-    <t>1094</t>
-  </si>
-  <si>
-    <t>装备升到97级消耗金币</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>装备升到98级消耗金币</t>
-  </si>
-  <si>
-    <t>1096</t>
-  </si>
-  <si>
-    <t>装备升到99级消耗金币</t>
-  </si>
-  <si>
-    <t>1097</t>
-  </si>
-  <si>
-    <t>装备升到100级消耗金币</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
     <t>装备突破1次消耗</t>
   </si>
   <si>
@@ -1455,9 +861,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,10 +912,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1486,7 +928,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,15 +936,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,29 +975,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,56 +1004,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1645,7 +1051,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,55 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,7 +1195,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,13 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,79 +1231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,6 +1321,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1930,6 +1356,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1941,24 +1382,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,26 +1403,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2007,156 +1413,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2190,8 +1596,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3392,14 +2798,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U214"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J210" sqref="J210:J214"/>
+      <selection pane="bottomRight" activeCell="A111" sqref="$A111:$XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -10195,7 +9601,7 @@
       <c r="H106" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I106" s="23" t="str">
+      <c r="I106" s="24" t="str">
         <f t="shared" si="6"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -10214,7 +9620,7 @@
       <c r="N106" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="O106" s="23" t="str">
+      <c r="O106" s="24" t="str">
         <f t="shared" si="7"/>
         <v>10,0,-1,-1,-1</v>
       </c>
@@ -10233,7 +9639,7 @@
       <c r="T106" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U106" s="23" t="str">
+      <c r="U106" s="24" t="str">
         <f t="shared" si="8"/>
         <v>20,1500,0,0,0</v>
       </c>
@@ -10502,6863 +9908,329 @@
         <v>80,125500,0,0,0</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20" t="s">
+    <row r="111" ht="25" customHeight="1" spans="1:21">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D111" s="23">
+        <v>0</v>
+      </c>
+      <c r="E111" s="23">
+        <v>1</v>
+      </c>
+      <c r="F111" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G111" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H111" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I111" s="18" t="str">
+        <f>D111&amp;","&amp;E111&amp;","&amp;F111&amp;","&amp;G111&amp;","&amp;H111</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J111" s="23">
+        <v>160</v>
+      </c>
+      <c r="K111" s="23">
+        <v>0</v>
+      </c>
+      <c r="L111" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M111" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N111" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O111" s="18" t="str">
+        <f>J111&amp;","&amp;K111&amp;","&amp;L111&amp;","&amp;M111&amp;","&amp;N111</f>
+        <v>160,0,-1,-1,-1</v>
+      </c>
+      <c r="P111" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q111" s="23">
+        <v>3875</v>
+      </c>
+      <c r="R111" s="23">
+        <v>0</v>
+      </c>
+      <c r="S111" s="23">
+        <v>0</v>
+      </c>
+      <c r="T111" s="23">
+        <v>0</v>
+      </c>
+      <c r="U111" s="18" t="str">
+        <f>P111&amp;","&amp;Q111&amp;","&amp;R111&amp;","&amp;S111&amp;","&amp;T111</f>
+        <v>15,3875,0,0,0</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="2:21">
+      <c r="B112" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I111" s="23" t="str">
-        <f t="shared" ref="I111:I172" si="9">D111&amp;","&amp;E111&amp;","&amp;F111&amp;","&amp;G111&amp;","&amp;H111</f>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="N111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O111" s="23" t="str">
-        <f t="shared" ref="O111:O172" si="10">J111&amp;","&amp;K111&amp;","&amp;L111&amp;","&amp;M111&amp;","&amp;N111</f>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q111" s="22">
-        <v>1001</v>
-      </c>
-      <c r="R111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="S111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="T111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="U111" s="23" t="str">
-        <f t="shared" ref="U111:U172" si="11">P111&amp;","&amp;Q111&amp;","&amp;R111&amp;","&amp;S111&amp;","&amp;T111</f>
-        <v>0,1001,0,0,0</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A112" s="10"/>
-      <c r="B112" s="11" t="s">
+      <c r="C112" s="23">
+        <v>1201</v>
+      </c>
+      <c r="D112" s="23">
+        <v>0</v>
+      </c>
+      <c r="E112" s="23">
+        <v>1</v>
+      </c>
+      <c r="F112" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G112" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H112" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I112" s="18" t="str">
+        <f>D112&amp;","&amp;E112&amp;","&amp;F112&amp;","&amp;G112&amp;","&amp;H112</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J112" s="23">
+        <v>161</v>
+      </c>
+      <c r="K112" s="23">
+        <v>0</v>
+      </c>
+      <c r="L112" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M112" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N112" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O112" s="18" t="str">
+        <f>J112&amp;","&amp;K112&amp;","&amp;L112&amp;","&amp;M112&amp;","&amp;N112</f>
+        <v>161,0,-1,-1,-1</v>
+      </c>
+      <c r="P112" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>16125</v>
+      </c>
+      <c r="R112" s="23">
+        <v>0</v>
+      </c>
+      <c r="S112" s="23">
+        <v>0</v>
+      </c>
+      <c r="T112" s="23">
+        <v>0</v>
+      </c>
+      <c r="U112" s="18" t="str">
+        <f>P112&amp;","&amp;Q112&amp;","&amp;R112&amp;","&amp;S112&amp;","&amp;T112</f>
+        <v>35,16125,0,0,0</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="2:21">
+      <c r="B113" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C113" s="23">
+        <v>1202</v>
+      </c>
+      <c r="D113" s="23">
+        <v>0</v>
+      </c>
+      <c r="E113" s="23">
+        <v>1</v>
+      </c>
+      <c r="F113" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G113" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H113" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I113" s="18" t="str">
+        <f>D113&amp;","&amp;E113&amp;","&amp;F113&amp;","&amp;G113&amp;","&amp;H113</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J113" s="23">
+        <v>162</v>
+      </c>
+      <c r="K113" s="23">
+        <v>0</v>
+      </c>
+      <c r="L113" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M113" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N113" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O113" s="18" t="str">
+        <f>J113&amp;","&amp;K113&amp;","&amp;L113&amp;","&amp;M113&amp;","&amp;N113</f>
+        <v>162,0,-1,-1,-1</v>
+      </c>
+      <c r="P113" s="3">
+        <v>65</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>43375</v>
+      </c>
+      <c r="R113" s="23">
+        <v>0</v>
+      </c>
+      <c r="S113" s="23">
+        <v>0</v>
+      </c>
+      <c r="T113" s="23">
+        <v>0</v>
+      </c>
+      <c r="U113" s="18" t="str">
+        <f>P113&amp;","&amp;Q113&amp;","&amp;R113&amp;","&amp;S113&amp;","&amp;T113</f>
+        <v>65,43375,0,0,0</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="2:21">
+      <c r="B114" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N112" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O112" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q112" s="13">
-        <v>1008</v>
-      </c>
-      <c r="R112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U112" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1008,0,0,0</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A113" s="10"/>
-      <c r="B113" s="11" t="s">
+      <c r="C114" s="23">
+        <v>1203</v>
+      </c>
+      <c r="D114" s="23">
+        <v>0</v>
+      </c>
+      <c r="E114" s="23">
+        <v>1</v>
+      </c>
+      <c r="F114" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G114" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H114" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I114" s="18" t="str">
+        <f>D114&amp;","&amp;E114&amp;","&amp;F114&amp;","&amp;G114&amp;","&amp;H114</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J114" s="23">
+        <v>163</v>
+      </c>
+      <c r="K114" s="23">
+        <v>0</v>
+      </c>
+      <c r="L114" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M114" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N114" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O114" s="18" t="str">
+        <f>J114&amp;","&amp;K114&amp;","&amp;L114&amp;","&amp;M114&amp;","&amp;N114</f>
+        <v>163,0,-1,-1,-1</v>
+      </c>
+      <c r="P114" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>91625</v>
+      </c>
+      <c r="R114" s="23">
+        <v>0</v>
+      </c>
+      <c r="S114" s="23">
+        <v>0</v>
+      </c>
+      <c r="T114" s="23">
+        <v>0</v>
+      </c>
+      <c r="U114" s="18" t="str">
+        <f>P114&amp;","&amp;Q114&amp;","&amp;R114&amp;","&amp;S114&amp;","&amp;T114</f>
+        <v>85,91625,0,0,0</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="2:21">
+      <c r="B115" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I113" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K113" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O113" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P113" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q113" s="13">
-        <v>1027</v>
-      </c>
-      <c r="R113" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S113" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T113" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U113" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1027,0,0,0</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A114" s="10"/>
-      <c r="B114" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I114" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K114" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N114" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O114" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P114" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q114" s="13">
-        <v>1064</v>
-      </c>
-      <c r="R114" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S114" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T114" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U114" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1064,0,0,0</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>35</v>
+      <c r="C115" s="23">
+        <v>1204</v>
+      </c>
+      <c r="D115" s="23">
+        <v>0</v>
+      </c>
+      <c r="E115" s="23">
+        <v>1</v>
+      </c>
+      <c r="F115" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G115" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H115" s="23">
+        <v>-1</v>
       </c>
       <c r="I115" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K115" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N115" s="13" t="s">
-        <v>35</v>
+        <f>D115&amp;","&amp;E115&amp;","&amp;F115&amp;","&amp;G115&amp;","&amp;H115</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J115" s="23">
+        <v>164</v>
+      </c>
+      <c r="K115" s="23">
+        <v>0</v>
+      </c>
+      <c r="L115" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M115" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N115" s="23">
+        <v>-1</v>
       </c>
       <c r="O115" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P115" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q115" s="13">
-        <v>1125</v>
-      </c>
-      <c r="R115" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S115" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T115" s="13" t="s">
-        <v>36</v>
+        <f>J115&amp;","&amp;K115&amp;","&amp;L115&amp;","&amp;M115&amp;","&amp;N115</f>
+        <v>164,0,-1,-1,-1</v>
+      </c>
+      <c r="P115" s="3">
+        <v>105</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>166875</v>
+      </c>
+      <c r="R115" s="23">
+        <v>0</v>
+      </c>
+      <c r="S115" s="23">
+        <v>0</v>
+      </c>
+      <c r="T115" s="23">
+        <v>0</v>
       </c>
       <c r="U115" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1125,0,0,0</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A116" s="10"/>
-      <c r="B116" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I116" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K116" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N116" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O116" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P116" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q116" s="13">
-        <v>1216</v>
-      </c>
-      <c r="R116" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S116" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T116" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U116" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1216,0,0,0</v>
-      </c>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A117" s="10"/>
-      <c r="B117" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I117" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K117" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O117" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P117" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q117" s="13">
-        <v>1343</v>
-      </c>
-      <c r="R117" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S117" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T117" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U117" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1343,0,0,0</v>
-      </c>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A118" s="10"/>
-      <c r="B118" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I118" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K118" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N118" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O118" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P118" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q118" s="13">
-        <v>1512</v>
-      </c>
-      <c r="R118" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S118" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T118" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U118" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1512,0,0,0</v>
-      </c>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A119" s="10"/>
-      <c r="B119" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K119" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N119" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O119" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P119" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q119" s="13">
-        <v>1729</v>
-      </c>
-      <c r="R119" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S119" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T119" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U119" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1729,0,0,0</v>
-      </c>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I120" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K120" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N120" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O120" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P120" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q120" s="13">
-        <v>2000</v>
-      </c>
-      <c r="R120" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S120" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T120" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U120" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,2000,0,0,0</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A121" s="10"/>
-      <c r="B121" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I121" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K121" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N121" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O121" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P121" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q121" s="13">
-        <v>2331</v>
-      </c>
-      <c r="R121" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S121" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T121" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U121" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,2331,0,0,0</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A122" s="10"/>
-      <c r="B122" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I122" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K122" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N122" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O122" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P122" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q122" s="13">
-        <v>2728</v>
-      </c>
-      <c r="R122" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S122" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T122" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U122" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,2728,0,0,0</v>
-      </c>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A123" s="10"/>
-      <c r="B123" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I123" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K123" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O123" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P123" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q123" s="13">
-        <v>3197</v>
-      </c>
-      <c r="R123" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S123" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T123" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U123" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,3197,0,0,0</v>
-      </c>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A124" s="10"/>
-      <c r="B124" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I124" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K124" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O124" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P124" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q124" s="13">
-        <v>3744</v>
-      </c>
-      <c r="R124" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S124" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T124" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U124" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,3744,0,0,0</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I125" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K125" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N125" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O125" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P125" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q125" s="13">
-        <v>4375</v>
-      </c>
-      <c r="R125" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S125" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T125" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U125" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,4375,0,0,0</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A126" s="10"/>
-      <c r="B126" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I126" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K126" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O126" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P126" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q126" s="13">
-        <v>5096</v>
-      </c>
-      <c r="R126" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S126" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T126" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U126" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,5096,0,0,0</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A127" s="10"/>
-      <c r="B127" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I127" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N127" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O127" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q127" s="13">
-        <v>5913</v>
-      </c>
-      <c r="R127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U127" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,5913,0,0,0</v>
-      </c>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A128" s="10"/>
-      <c r="B128" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I128" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K128" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N128" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O128" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P128" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q128" s="13">
-        <v>6832</v>
-      </c>
-      <c r="R128" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S128" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T128" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U128" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,6832,0,0,0</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A129" s="10"/>
-      <c r="B129" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I129" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K129" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N129" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O129" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P129" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q129" s="13">
-        <v>7859</v>
-      </c>
-      <c r="R129" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S129" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T129" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U129" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,7859,0,0,0</v>
-      </c>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A130" s="10"/>
-      <c r="B130" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I130" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K130" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N130" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O130" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P130" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q130" s="13">
-        <v>9000</v>
-      </c>
-      <c r="R130" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S130" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T130" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U130" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,9000,0,0,0</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A131" s="10"/>
-      <c r="B131" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I131" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K131" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N131" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O131" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P131" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q131" s="13">
-        <v>10261</v>
-      </c>
-      <c r="R131" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S131" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T131" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U131" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,10261,0,0,0</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A132" s="10"/>
-      <c r="B132" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I132" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K132" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O132" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P132" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q132" s="13">
-        <v>11648</v>
-      </c>
-      <c r="R132" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S132" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T132" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U132" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,11648,0,0,0</v>
-      </c>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A133" s="10"/>
-      <c r="B133" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I133" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K133" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N133" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O133" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P133" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q133" s="13">
-        <v>13167</v>
-      </c>
-      <c r="R133" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S133" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T133" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U133" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,13167,0,0,0</v>
-      </c>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A134" s="10"/>
-      <c r="B134" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I134" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K134" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O134" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P134" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q134" s="13">
-        <v>14824</v>
-      </c>
-      <c r="R134" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S134" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T134" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U134" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,14824,0,0,0</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A135" s="10"/>
-      <c r="B135" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I135" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K135" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N135" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O135" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P135" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q135" s="13">
-        <v>16625</v>
-      </c>
-      <c r="R135" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S135" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T135" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U135" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,16625,0,0,0</v>
-      </c>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I136" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K136" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O136" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P136" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q136" s="13">
-        <v>18576</v>
-      </c>
-      <c r="R136" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S136" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T136" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U136" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,18576,0,0,0</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A137" s="10"/>
-      <c r="B137" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I137" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K137" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O137" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P137" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q137" s="13">
-        <v>20683</v>
-      </c>
-      <c r="R137" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S137" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T137" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U137" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,20683,0,0,0</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A138" s="10"/>
-      <c r="B138" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I138" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K138" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O138" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P138" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q138" s="13">
-        <v>22952</v>
-      </c>
-      <c r="R138" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S138" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T138" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U138" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,22952,0,0,0</v>
-      </c>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A139" s="10"/>
-      <c r="B139" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I139" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K139" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N139" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O139" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P139" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q139" s="13">
-        <v>25389</v>
-      </c>
-      <c r="R139" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S139" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T139" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U139" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,25389,0,0,0</v>
-      </c>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A140" s="10"/>
-      <c r="B140" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I140" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K140" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N140" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O140" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P140" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q140" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R140" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S140" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T140" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U140" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,28000,0,0,0</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I141" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K141" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N141" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O141" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P141" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q141" s="13">
-        <v>30791</v>
-      </c>
-      <c r="R141" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S141" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T141" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U141" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,30791,0,0,0</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A142" s="10"/>
-      <c r="B142" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I142" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K142" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O142" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P142" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q142" s="13">
-        <v>33768</v>
-      </c>
-      <c r="R142" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S142" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T142" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U142" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,33768,0,0,0</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A143" s="10"/>
-      <c r="B143" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I143" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K143" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O143" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P143" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q143" s="13">
-        <v>36937</v>
-      </c>
-      <c r="R143" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S143" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T143" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U143" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,36937,0,0,0</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A144" s="10"/>
-      <c r="B144" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I144" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K144" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N144" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O144" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P144" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q144" s="13">
-        <v>40304</v>
-      </c>
-      <c r="R144" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S144" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T144" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U144" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,40304,0,0,0</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A145" s="10"/>
-      <c r="B145" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I145" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K145" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O145" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P145" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q145" s="13">
-        <v>43875</v>
-      </c>
-      <c r="R145" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S145" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T145" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U145" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,43875,0,0,0</v>
-      </c>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I146" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K146" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O146" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P146" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q146" s="13">
-        <v>47656</v>
-      </c>
-      <c r="R146" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S146" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T146" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U146" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,47656,0,0,0</v>
-      </c>
-    </row>
-    <row r="147" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I147" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K147" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O147" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P147" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q147" s="13">
-        <v>51653</v>
-      </c>
-      <c r="R147" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S147" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T147" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U147" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,51653,0,0,0</v>
-      </c>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A148" s="10"/>
-      <c r="B148" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I148" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K148" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N148" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O148" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P148" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q148" s="13">
-        <v>55872</v>
-      </c>
-      <c r="R148" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S148" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T148" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U148" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,55872,0,0,0</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A149" s="10"/>
-      <c r="B149" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I149" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K149" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N149" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O149" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P149" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q149" s="13">
-        <v>60319</v>
-      </c>
-      <c r="R149" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S149" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T149" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U149" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,60319,0,0,0</v>
-      </c>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A150" s="10"/>
-      <c r="B150" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I150" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K150" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N150" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O150" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P150" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q150" s="13">
-        <v>65000</v>
-      </c>
-      <c r="R150" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S150" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T150" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U150" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,65000,0,0,0</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I151" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K151" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N151" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O151" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P151" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q151" s="13">
-        <v>69921</v>
-      </c>
-      <c r="R151" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S151" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T151" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U151" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,69921,0,0,0</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I152" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K152" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N152" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O152" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P152" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q152" s="13">
-        <v>75088</v>
-      </c>
-      <c r="R152" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S152" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T152" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U152" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,75088,0,0,0</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A153" s="10"/>
-      <c r="B153" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I153" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K153" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N153" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O153" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P153" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q153" s="13">
-        <v>80507</v>
-      </c>
-      <c r="R153" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S153" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T153" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U153" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,80507,0,0,0</v>
-      </c>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A154" s="10"/>
-      <c r="B154" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I154" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K154" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N154" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O154" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P154" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q154" s="13">
-        <v>86184</v>
-      </c>
-      <c r="R154" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S154" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T154" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U154" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,86184,0,0,0</v>
-      </c>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A155" s="10"/>
-      <c r="B155" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I155" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K155" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N155" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O155" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P155" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q155" s="13">
-        <v>92125</v>
-      </c>
-      <c r="R155" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S155" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T155" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U155" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,92125,0,0,0</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E156" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I156" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K156" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N156" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O156" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P156" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q156" s="13">
-        <v>98336</v>
-      </c>
-      <c r="R156" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S156" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T156" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U156" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,98336,0,0,0</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A157" s="10"/>
-      <c r="B157" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E157" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I157" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K157" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N157" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O157" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P157" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q157" s="13">
-        <v>104823</v>
-      </c>
-      <c r="R157" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S157" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T157" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U157" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,104823,0,0,0</v>
-      </c>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A158" s="10"/>
-      <c r="B158" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E158" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I158" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K158" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N158" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O158" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P158" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q158" s="13">
-        <v>111592</v>
-      </c>
-      <c r="R158" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S158" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T158" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U158" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,111592,0,0,0</v>
-      </c>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A159" s="10"/>
-      <c r="B159" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I159" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K159" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N159" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O159" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P159" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q159" s="13">
-        <v>118649</v>
-      </c>
-      <c r="R159" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S159" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T159" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U159" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,118649,0,0,0</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A160" s="10"/>
-      <c r="B160" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I160" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K160" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N160" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O160" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P160" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q160" s="13">
-        <v>126000</v>
-      </c>
-      <c r="R160" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S160" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T160" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U160" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,126000,0,0,0</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A161" s="10"/>
-      <c r="B161" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I161" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K161" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N161" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O161" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P161" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q161" s="13">
-        <v>133651</v>
-      </c>
-      <c r="R161" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S161" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T161" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U161" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,133651,0,0,0</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I162" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K162" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N162" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O162" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P162" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q162" s="13">
-        <v>141608</v>
-      </c>
-      <c r="R162" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S162" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T162" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U162" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,141608,0,0,0</v>
-      </c>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A163" s="10"/>
-      <c r="B163" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I163" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K163" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N163" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O163" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P163" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q163" s="13">
-        <v>149877</v>
-      </c>
-      <c r="R163" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S163" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T163" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U163" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,149877,0,0,0</v>
-      </c>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A164" s="10"/>
-      <c r="B164" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I164" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K164" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O164" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P164" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q164" s="13">
-        <v>158464</v>
-      </c>
-      <c r="R164" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S164" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T164" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U164" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,158464,0,0,0</v>
-      </c>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A165" s="10"/>
-      <c r="B165" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="D165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I165" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N165" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O165" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q165" s="13">
-        <v>167375</v>
-      </c>
-      <c r="R165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U165" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,167375,0,0,0</v>
-      </c>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A166" s="10"/>
-      <c r="B166" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I166" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K166" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N166" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O166" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P166" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q166" s="13">
-        <v>176616</v>
-      </c>
-      <c r="R166" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S166" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T166" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U166" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,176616,0,0,0</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I167" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K167" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N167" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O167" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P167" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q167" s="13">
-        <v>186193</v>
-      </c>
-      <c r="R167" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S167" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T167" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U167" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,186193,0,0,0</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A168" s="10"/>
-      <c r="B168" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I168" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K168" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N168" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O168" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P168" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q168" s="13">
-        <v>196112</v>
-      </c>
-      <c r="R168" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S168" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T168" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U168" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,196112,0,0,0</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A169" s="10"/>
-      <c r="B169" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I169" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K169" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N169" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O169" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P169" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q169" s="13">
-        <v>206379</v>
-      </c>
-      <c r="R169" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S169" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T169" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U169" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,206379,0,0,0</v>
-      </c>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A170" s="10"/>
-      <c r="B170" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I170" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K170" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N170" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O170" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P170" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q170" s="13">
-        <v>217000</v>
-      </c>
-      <c r="R170" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S170" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T170" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U170" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,217000,0,0,0</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A171" s="10"/>
-      <c r="B171" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I171" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K171" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N171" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O171" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P171" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q171" s="13">
-        <v>227981</v>
-      </c>
-      <c r="R171" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S171" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T171" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U171" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,227981,0,0,0</v>
-      </c>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I172" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K172" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N172" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O172" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P172" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q172" s="13">
-        <v>239328</v>
-      </c>
-      <c r="R172" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S172" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T172" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U172" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,239328,0,0,0</v>
-      </c>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A173" s="10"/>
-      <c r="B173" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I173" s="18" t="str">
-        <f t="shared" ref="I173:I214" si="12">D173&amp;","&amp;E173&amp;","&amp;F173&amp;","&amp;G173&amp;","&amp;H173</f>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K173" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N173" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O173" s="18" t="str">
-        <f t="shared" ref="O173:O214" si="13">J173&amp;","&amp;K173&amp;","&amp;L173&amp;","&amp;M173&amp;","&amp;N173</f>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P173" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q173" s="13">
-        <v>251047</v>
-      </c>
-      <c r="R173" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S173" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T173" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U173" s="18" t="str">
-        <f t="shared" ref="U173:U214" si="14">P173&amp;","&amp;Q173&amp;","&amp;R173&amp;","&amp;S173&amp;","&amp;T173</f>
-        <v>0,251047,0,0,0</v>
-      </c>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A174" s="10"/>
-      <c r="B174" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I174" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K174" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N174" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O174" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P174" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q174" s="13">
-        <v>263144</v>
-      </c>
-      <c r="R174" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S174" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T174" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U174" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,263144,0,0,0</v>
-      </c>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A175" s="10"/>
-      <c r="B175" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="D175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I175" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K175" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N175" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O175" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P175" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q175" s="13">
-        <v>275625</v>
-      </c>
-      <c r="R175" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S175" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T175" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U175" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,275625,0,0,0</v>
-      </c>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A176" s="10"/>
-      <c r="B176" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I176" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K176" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N176" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O176" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P176" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q176" s="13">
-        <v>288496</v>
-      </c>
-      <c r="R176" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S176" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T176" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U176" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,288496,0,0,0</v>
-      </c>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I177" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K177" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N177" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O177" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P177" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q177" s="13">
-        <v>301763</v>
-      </c>
-      <c r="R177" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S177" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T177" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U177" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,301763,0,0,0</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A178" s="10"/>
-      <c r="B178" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I178" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K178" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N178" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O178" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P178" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q178" s="13">
-        <v>315432</v>
-      </c>
-      <c r="R178" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S178" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T178" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U178" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,315432,0,0,0</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A179" s="10"/>
-      <c r="B179" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I179" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K179" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N179" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O179" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P179" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q179" s="13">
-        <v>329509</v>
-      </c>
-      <c r="R179" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S179" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T179" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U179" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,329509,0,0,0</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A180" s="10"/>
-      <c r="B180" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I180" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K180" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N180" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O180" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P180" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q180" s="13">
-        <v>344000</v>
-      </c>
-      <c r="R180" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S180" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T180" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U180" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,344000,0,0,0</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A181" s="10"/>
-      <c r="B181" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E181" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I181" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K181" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N181" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O181" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P181" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q181" s="13">
-        <v>358911</v>
-      </c>
-      <c r="R181" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S181" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T181" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U181" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,358911,0,0,0</v>
-      </c>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I182" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K182" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N182" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O182" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P182" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q182" s="13">
-        <v>374248</v>
-      </c>
-      <c r="R182" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S182" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T182" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U182" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,374248,0,0,0</v>
-      </c>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A183" s="10"/>
-      <c r="B183" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I183" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K183" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N183" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O183" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P183" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q183" s="13">
-        <v>390017</v>
-      </c>
-      <c r="R183" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S183" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T183" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U183" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,390017,0,0,0</v>
-      </c>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A184" s="10"/>
-      <c r="B184" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="D184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E184" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I184" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K184" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N184" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O184" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P184" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q184" s="13">
-        <v>406224</v>
-      </c>
-      <c r="R184" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S184" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T184" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U184" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,406224,0,0,0</v>
-      </c>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A185" s="10"/>
-      <c r="B185" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I185" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K185" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N185" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O185" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P185" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q185" s="13">
-        <v>422875</v>
-      </c>
-      <c r="R185" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S185" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T185" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U185" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,422875,0,0,0</v>
-      </c>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A186" s="10"/>
-      <c r="B186" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I186" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K186" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N186" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O186" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P186" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q186" s="13">
-        <v>439976</v>
-      </c>
-      <c r="R186" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S186" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T186" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U186" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,439976,0,0,0</v>
-      </c>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A187" s="10"/>
-      <c r="B187" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I187" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K187" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N187" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O187" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P187" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q187" s="13">
-        <v>457533</v>
-      </c>
-      <c r="R187" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S187" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T187" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U187" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,457533,0,0,0</v>
-      </c>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I188" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K188" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N188" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O188" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P188" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q188" s="13">
-        <v>475552</v>
-      </c>
-      <c r="R188" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S188" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T188" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U188" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,475552,0,0,0</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A189" s="10"/>
-      <c r="B189" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I189" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K189" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N189" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O189" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P189" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q189" s="13">
-        <v>494039</v>
-      </c>
-      <c r="R189" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S189" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T189" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U189" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,494039,0,0,0</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A190" s="10"/>
-      <c r="B190" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E190" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I190" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K190" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N190" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O190" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P190" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q190" s="13">
-        <v>513000</v>
-      </c>
-      <c r="R190" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S190" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T190" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U190" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,513000,0,0,0</v>
-      </c>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A191" s="10"/>
-      <c r="B191" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I191" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K191" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N191" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O191" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P191" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q191" s="13">
-        <v>532441</v>
-      </c>
-      <c r="R191" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S191" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T191" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U191" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,532441,0,0,0</v>
-      </c>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A192" s="10"/>
-      <c r="B192" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I192" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K192" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N192" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O192" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P192" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q192" s="13">
-        <v>552368</v>
-      </c>
-      <c r="R192" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S192" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T192" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U192" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,552368,0,0,0</v>
-      </c>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="D193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I193" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K193" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N193" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O193" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P193" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q193" s="13">
-        <v>572787</v>
-      </c>
-      <c r="R193" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S193" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T193" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U193" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,572787,0,0,0</v>
-      </c>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A194" s="10"/>
-      <c r="B194" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I194" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K194" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N194" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O194" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P194" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q194" s="13">
-        <v>593704</v>
-      </c>
-      <c r="R194" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S194" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T194" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U194" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,593704,0,0,0</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A195" s="10"/>
-      <c r="B195" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I195" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K195" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N195" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O195" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P195" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q195" s="13">
-        <v>615125</v>
-      </c>
-      <c r="R195" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S195" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T195" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U195" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,615125,0,0,0</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A196" s="10"/>
-      <c r="B196" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I196" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K196" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N196" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O196" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P196" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q196" s="13">
-        <v>637056</v>
-      </c>
-      <c r="R196" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S196" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T196" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U196" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,637056,0,0,0</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I197" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K197" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N197" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O197" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P197" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q197" s="13">
-        <v>659503</v>
-      </c>
-      <c r="R197" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S197" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T197" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U197" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,659503,0,0,0</v>
-      </c>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I198" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K198" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N198" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O198" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P198" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q198" s="13">
-        <v>682472</v>
-      </c>
-      <c r="R198" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S198" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T198" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U198" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,682472,0,0,0</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A199" s="10"/>
-      <c r="B199" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I199" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K199" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N199" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O199" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P199" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q199" s="13">
-        <v>705969</v>
-      </c>
-      <c r="R199" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S199" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T199" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U199" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,705969,0,0,0</v>
-      </c>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A200" s="10"/>
-      <c r="B200" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="D200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I200" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K200" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N200" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O200" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P200" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q200" s="13">
-        <v>730000</v>
-      </c>
-      <c r="R200" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S200" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T200" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U200" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,730000,0,0,0</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E201" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I201" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K201" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N201" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O201" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P201" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q201" s="13">
-        <v>754571</v>
-      </c>
-      <c r="R201" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S201" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T201" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U201" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,754571,0,0,0</v>
-      </c>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A202" s="10"/>
-      <c r="B202" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I202" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K202" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N202" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O202" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P202" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q202" s="13">
-        <v>779688</v>
-      </c>
-      <c r="R202" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S202" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T202" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U202" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,779688,0,0,0</v>
-      </c>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A203" s="10"/>
-      <c r="B203" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="D203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I203" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K203" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N203" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O203" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P203" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q203" s="13">
-        <v>805357</v>
-      </c>
-      <c r="R203" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S203" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T203" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U203" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,805357,0,0,0</v>
-      </c>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A204" s="10"/>
-      <c r="B204" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="D204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I204" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K204" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N204" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O204" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P204" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q204" s="13">
-        <v>831584</v>
-      </c>
-      <c r="R204" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S204" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T204" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U204" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,831584,0,0,0</v>
-      </c>
-    </row>
-    <row r="205" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A205" s="10"/>
-      <c r="B205" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="D205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E205" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I205" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K205" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N205" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O205" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P205" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q205" s="13">
-        <v>858375</v>
-      </c>
-      <c r="R205" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S205" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T205" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U205" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,858375,0,0,0</v>
-      </c>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A206" s="10"/>
-      <c r="B206" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I206" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K206" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N206" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O206" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P206" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q206" s="13">
-        <v>885736</v>
-      </c>
-      <c r="R206" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S206" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T206" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U206" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,885736,0,0,0</v>
-      </c>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A207" s="10"/>
-      <c r="B207" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="D207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E207" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I207" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K207" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N207" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O207" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P207" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q207" s="13">
-        <v>913673</v>
-      </c>
-      <c r="R207" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S207" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T207" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U207" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,913673,0,0,0</v>
-      </c>
-    </row>
-    <row r="208" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A208" s="10"/>
-      <c r="B208" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C208" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="D208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I208" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K208" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N208" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O208" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P208" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q208" s="13">
-        <v>942192</v>
-      </c>
-      <c r="R208" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S208" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T208" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U208" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,942192,0,0,0</v>
-      </c>
-    </row>
-    <row r="209" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:21">
-      <c r="A209" s="10"/>
-      <c r="B209" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I209" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,1,-1,-1,-1</v>
-      </c>
-      <c r="J209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K209" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N209" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O209" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,0,-1,-1,-1</v>
-      </c>
-      <c r="P209" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q209" s="13">
-        <v>971299</v>
-      </c>
-      <c r="R209" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S209" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T209" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U209" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,971299,0,0,0</v>
-      </c>
-    </row>
-    <row r="210" ht="25" customHeight="1" spans="1:21">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C210" s="24">
-        <v>1200</v>
-      </c>
-      <c r="D210" s="24">
-        <v>0</v>
-      </c>
-      <c r="E210" s="24">
-        <v>1</v>
-      </c>
-      <c r="F210" s="24">
-        <v>-1</v>
-      </c>
-      <c r="G210" s="24">
-        <v>-1</v>
-      </c>
-      <c r="H210" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I210" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,-1,-1,-1</v>
-      </c>
-      <c r="J210" s="24">
-        <v>160</v>
-      </c>
-      <c r="K210" s="24">
-        <v>0</v>
-      </c>
-      <c r="L210" s="24">
-        <v>-1</v>
-      </c>
-      <c r="M210" s="24">
-        <v>-1</v>
-      </c>
-      <c r="N210" s="24">
-        <v>-1</v>
-      </c>
-      <c r="O210" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>160,0,-1,-1,-1</v>
-      </c>
-      <c r="P210" s="24">
-        <v>15</v>
-      </c>
-      <c r="Q210" s="24">
-        <v>3875</v>
-      </c>
-      <c r="R210" s="24">
-        <v>0</v>
-      </c>
-      <c r="S210" s="24">
-        <v>0</v>
-      </c>
-      <c r="T210" s="24">
-        <v>0</v>
-      </c>
-      <c r="U210" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>15,3875,0,0,0</v>
-      </c>
-    </row>
-    <row r="211" customHeight="1" spans="2:21">
-      <c r="B211" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C211" s="24">
-        <v>1201</v>
-      </c>
-      <c r="D211" s="24">
-        <v>0</v>
-      </c>
-      <c r="E211" s="24">
-        <v>1</v>
-      </c>
-      <c r="F211" s="24">
-        <v>-1</v>
-      </c>
-      <c r="G211" s="24">
-        <v>-1</v>
-      </c>
-      <c r="H211" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I211" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,-1,-1,-1</v>
-      </c>
-      <c r="J211" s="24">
-        <v>161</v>
-      </c>
-      <c r="K211" s="24">
-        <v>0</v>
-      </c>
-      <c r="L211" s="24">
-        <v>-1</v>
-      </c>
-      <c r="M211" s="24">
-        <v>-1</v>
-      </c>
-      <c r="N211" s="24">
-        <v>-1</v>
-      </c>
-      <c r="O211" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>161,0,-1,-1,-1</v>
-      </c>
-      <c r="P211" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q211" s="3">
-        <v>16125</v>
-      </c>
-      <c r="R211" s="24">
-        <v>0</v>
-      </c>
-      <c r="S211" s="24">
-        <v>0</v>
-      </c>
-      <c r="T211" s="24">
-        <v>0</v>
-      </c>
-      <c r="U211" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>35,16125,0,0,0</v>
-      </c>
-    </row>
-    <row r="212" customHeight="1" spans="2:21">
-      <c r="B212" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C212" s="24">
-        <v>1202</v>
-      </c>
-      <c r="D212" s="24">
-        <v>0</v>
-      </c>
-      <c r="E212" s="24">
-        <v>1</v>
-      </c>
-      <c r="F212" s="24">
-        <v>-1</v>
-      </c>
-      <c r="G212" s="24">
-        <v>-1</v>
-      </c>
-      <c r="H212" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I212" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,-1,-1,-1</v>
-      </c>
-      <c r="J212" s="24">
-        <v>162</v>
-      </c>
-      <c r="K212" s="24">
-        <v>0</v>
-      </c>
-      <c r="L212" s="24">
-        <v>-1</v>
-      </c>
-      <c r="M212" s="24">
-        <v>-1</v>
-      </c>
-      <c r="N212" s="24">
-        <v>-1</v>
-      </c>
-      <c r="O212" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>162,0,-1,-1,-1</v>
-      </c>
-      <c r="P212" s="3">
-        <v>65</v>
-      </c>
-      <c r="Q212" s="3">
-        <v>43375</v>
-      </c>
-      <c r="R212" s="24">
-        <v>0</v>
-      </c>
-      <c r="S212" s="24">
-        <v>0</v>
-      </c>
-      <c r="T212" s="24">
-        <v>0</v>
-      </c>
-      <c r="U212" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>65,43375,0,0,0</v>
-      </c>
-    </row>
-    <row r="213" customHeight="1" spans="2:21">
-      <c r="B213" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C213" s="24">
-        <v>1203</v>
-      </c>
-      <c r="D213" s="24">
-        <v>0</v>
-      </c>
-      <c r="E213" s="24">
-        <v>1</v>
-      </c>
-      <c r="F213" s="24">
-        <v>-1</v>
-      </c>
-      <c r="G213" s="24">
-        <v>-1</v>
-      </c>
-      <c r="H213" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I213" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,-1,-1,-1</v>
-      </c>
-      <c r="J213" s="24">
-        <v>163</v>
-      </c>
-      <c r="K213" s="24">
-        <v>0</v>
-      </c>
-      <c r="L213" s="24">
-        <v>-1</v>
-      </c>
-      <c r="M213" s="24">
-        <v>-1</v>
-      </c>
-      <c r="N213" s="24">
-        <v>-1</v>
-      </c>
-      <c r="O213" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>163,0,-1,-1,-1</v>
-      </c>
-      <c r="P213" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q213" s="3">
-        <v>91625</v>
-      </c>
-      <c r="R213" s="24">
-        <v>0</v>
-      </c>
-      <c r="S213" s="24">
-        <v>0</v>
-      </c>
-      <c r="T213" s="24">
-        <v>0</v>
-      </c>
-      <c r="U213" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>85,91625,0,0,0</v>
-      </c>
-    </row>
-    <row r="214" customHeight="1" spans="2:21">
-      <c r="B214" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C214" s="24">
-        <v>1204</v>
-      </c>
-      <c r="D214" s="24">
-        <v>0</v>
-      </c>
-      <c r="E214" s="24">
-        <v>1</v>
-      </c>
-      <c r="F214" s="24">
-        <v>-1</v>
-      </c>
-      <c r="G214" s="24">
-        <v>-1</v>
-      </c>
-      <c r="H214" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I214" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,-1,-1,-1</v>
-      </c>
-      <c r="J214" s="24">
-        <v>164</v>
-      </c>
-      <c r="K214" s="24">
-        <v>0</v>
-      </c>
-      <c r="L214" s="24">
-        <v>-1</v>
-      </c>
-      <c r="M214" s="24">
-        <v>-1</v>
-      </c>
-      <c r="N214" s="24">
-        <v>-1</v>
-      </c>
-      <c r="O214" s="18" t="str">
-        <f t="shared" si="13"/>
-        <v>164,0,-1,-1,-1</v>
-      </c>
-      <c r="P214" s="3">
-        <v>105</v>
-      </c>
-      <c r="Q214" s="3">
-        <v>166875</v>
-      </c>
-      <c r="R214" s="24">
-        <v>0</v>
-      </c>
-      <c r="S214" s="24">
-        <v>0</v>
-      </c>
-      <c r="T214" s="24">
-        <v>0</v>
-      </c>
-      <c r="U214" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>P115&amp;","&amp;Q115&amp;","&amp;R115&amp;","&amp;S115&amp;","&amp;T115</f>
         <v>105,166875,0,0,0</v>
       </c>
     </row>

--- a/config/excel/CostLoot.xlsx
+++ b/config/excel/CostLoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="CostLoot" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -37,19 +37,14 @@
 
 2: 英雄 
 3: 玩家经验 
-4: 英雄碎片</t>
+4: 英雄碎片
+5: 晶石</t>
   </si>
   <si>
     <t>此列由前5列自动生成，不用填写</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
       <t>type=0时，参数为物品id</t>
     </r>
     <r>
@@ -92,7 +87,8 @@
       <t xml:space="preserve">
 type=2时，参数为英雄id
 type=3时，参数无意义
-type=4时，参数为英雄id</t>
+type=4时，参数为英雄id
+type=5时，参数为晶石id</t>
     </r>
   </si>
   <si>
@@ -254,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -285,23 +281,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,44 +303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,46 +328,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -422,7 +350,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +366,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,187 +471,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,32 +741,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,20 +761,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,15 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,151 +812,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,61 +1014,61 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2220,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:U16"/>
   <sheetViews>
@@ -2229,27 +2225,27 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3583333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.3557692307692" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5416666666667" style="3" customWidth="1"/>
-    <col min="5" max="8" width="6.30833333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.925" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5384615384615" style="3" customWidth="1"/>
+    <col min="5" max="8" width="6.30769230769231" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.75" style="3" customWidth="1"/>
     <col min="14" max="14" width="9" style="3" customWidth="1"/>
     <col min="15" max="15" width="14.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.30833333333333" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.30769230769231" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
-    <col min="18" max="20" width="6.30833333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.9583333333333" style="3" customWidth="1"/>
+    <col min="18" max="20" width="6.30769230769231" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.9615384615385" style="3" customWidth="1"/>
     <col min="22" max="16383" width="6" style="3" customWidth="1"/>
     <col min="16384" max="16384" width="6" style="3"/>
   </cols>
@@ -2305,7 +2301,7 @@
       <c r="O2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -2327,7 +2323,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="9"/>
@@ -2335,7 +2331,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="9"/>
@@ -2343,7 +2339,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2370,7 +2366,7 @@
       <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -2388,7 +2384,7 @@
       <c r="N4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="9" t="s">
@@ -2406,7 +2402,7 @@
       <c r="T4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2421,19 +2417,19 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="22"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="22"/>
+      <c r="U5" s="21"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="5"/>
@@ -2448,7 +2444,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="9"/>
@@ -2456,7 +2452,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="9"/>
@@ -2464,7 +2460,7 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="22" t="s">
+      <c r="U6" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2491,7 +2487,7 @@
       <c r="H7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="23" t="str">
+      <c r="I7" s="22" t="str">
         <f t="shared" ref="I7:I16" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2510,7 +2506,7 @@
       <c r="N7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="23" t="str">
+      <c r="O7" s="22" t="str">
         <f t="shared" ref="O7:O16" si="1">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
         <v>10,0,-1,-1,-1</v>
       </c>
@@ -2529,7 +2525,7 @@
       <c r="T7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="23" t="str">
+      <c r="U7" s="22" t="str">
         <f t="shared" ref="U7:U16" si="2">P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7</f>
         <v>20,1500,0,0,0</v>
       </c>
@@ -2557,7 +2553,7 @@
       <c r="H8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2576,7 +2572,7 @@
       <c r="N8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="24" t="str">
+      <c r="O8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>11,0,-1,-1,-1</v>
       </c>
@@ -2595,7 +2591,7 @@
       <c r="T8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="24" t="str">
+      <c r="U8" s="23" t="str">
         <f t="shared" si="2"/>
         <v>35,8500,0,0,0</v>
       </c>
@@ -2623,7 +2619,7 @@
       <c r="H9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="24" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2642,7 +2638,7 @@
       <c r="N9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="24" t="str">
+      <c r="O9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>12,0,-1,-1,-1</v>
       </c>
@@ -2661,7 +2657,7 @@
       <c r="T9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="24" t="str">
+      <c r="U9" s="23" t="str">
         <f t="shared" si="2"/>
         <v>50,27500,0,0,0</v>
       </c>
@@ -2689,7 +2685,7 @@
       <c r="H10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="24" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2708,7 +2704,7 @@
       <c r="N10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="24" t="str">
+      <c r="O10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>13,0,-1,-1,-1</v>
       </c>
@@ -2727,7 +2723,7 @@
       <c r="T10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="24" t="str">
+      <c r="U10" s="23" t="str">
         <f t="shared" si="2"/>
         <v>65,64500,0,0,0</v>
       </c>
@@ -2755,7 +2751,7 @@
       <c r="H11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2774,7 +2770,7 @@
       <c r="N11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="24" t="str">
+      <c r="O11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>14,0,-1,-1,-1</v>
       </c>
@@ -2793,7 +2789,7 @@
       <c r="T11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="24" t="str">
+      <c r="U11" s="23" t="str">
         <f t="shared" si="2"/>
         <v>80,125500,0,0,0</v>
       </c>
@@ -2821,7 +2817,7 @@
       <c r="H12" s="18">
         <v>-1</v>
       </c>
-      <c r="I12" s="24" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2840,7 +2836,7 @@
       <c r="N12" s="18">
         <v>-1</v>
       </c>
-      <c r="O12" s="24" t="str">
+      <c r="O12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>160,0,-1,-1,-1</v>
       </c>
@@ -2859,7 +2855,7 @@
       <c r="T12" s="18">
         <v>0</v>
       </c>
-      <c r="U12" s="24" t="str">
+      <c r="U12" s="23" t="str">
         <f t="shared" si="2"/>
         <v>15,3875,0,0,0</v>
       </c>
@@ -2886,7 +2882,7 @@
       <c r="H13" s="18">
         <v>-1</v>
       </c>
-      <c r="I13" s="24" t="str">
+      <c r="I13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2905,7 +2901,7 @@
       <c r="N13" s="18">
         <v>-1</v>
       </c>
-      <c r="O13" s="24" t="str">
+      <c r="O13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>161,0,-1,-1,-1</v>
       </c>
@@ -2924,7 +2920,7 @@
       <c r="T13" s="18">
         <v>0</v>
       </c>
-      <c r="U13" s="24" t="str">
+      <c r="U13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>35,16125,0,0,0</v>
       </c>
@@ -2951,7 +2947,7 @@
       <c r="H14" s="18">
         <v>-1</v>
       </c>
-      <c r="I14" s="24" t="str">
+      <c r="I14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -2970,7 +2966,7 @@
       <c r="N14" s="18">
         <v>-1</v>
       </c>
-      <c r="O14" s="24" t="str">
+      <c r="O14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>162,0,-1,-1,-1</v>
       </c>
@@ -2989,7 +2985,7 @@
       <c r="T14" s="18">
         <v>0</v>
       </c>
-      <c r="U14" s="24" t="str">
+      <c r="U14" s="23" t="str">
         <f t="shared" si="2"/>
         <v>65,43375,0,0,0</v>
       </c>
@@ -3016,7 +3012,7 @@
       <c r="H15" s="18">
         <v>-1</v>
       </c>
-      <c r="I15" s="24" t="str">
+      <c r="I15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -3035,7 +3031,7 @@
       <c r="N15" s="18">
         <v>-1</v>
       </c>
-      <c r="O15" s="24" t="str">
+      <c r="O15" s="23" t="str">
         <f t="shared" si="1"/>
         <v>163,0,-1,-1,-1</v>
       </c>
@@ -3054,7 +3050,7 @@
       <c r="T15" s="18">
         <v>0</v>
       </c>
-      <c r="U15" s="24" t="str">
+      <c r="U15" s="23" t="str">
         <f t="shared" si="2"/>
         <v>85,91625,0,0,0</v>
       </c>
@@ -3081,7 +3077,7 @@
       <c r="H16" s="18">
         <v>-1</v>
       </c>
-      <c r="I16" s="24" t="str">
+      <c r="I16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0,1,-1,-1,-1</v>
       </c>
@@ -3100,7 +3096,7 @@
       <c r="N16" s="18">
         <v>-1</v>
       </c>
-      <c r="O16" s="24" t="str">
+      <c r="O16" s="23" t="str">
         <f t="shared" si="1"/>
         <v>164,0,-1,-1,-1</v>
       </c>
@@ -3119,7 +3115,7 @@
       <c r="T16" s="18">
         <v>0</v>
       </c>
-      <c r="U16" s="24" t="str">
+      <c r="U16" s="23" t="str">
         <f t="shared" si="2"/>
         <v>105,166875,0,0,0</v>
       </c>

--- a/config/excel/CostLoot.xlsx
+++ b/config/excel/CostLoot.xlsx
@@ -82,6 +82,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>0：物品</t>
     </r>
     <r>
@@ -1233,10 +1239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1282,9 +1288,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,21 +1303,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,15 +1331,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1349,8 +1361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1365,6 +1386,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1372,8 +1416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,47 +1432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,37 +1501,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,61 +1555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,31 +1579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,7 +1597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,19 +1609,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,24 +1795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1841,7 +1829,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1857,6 +1845,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,11 +1886,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1892,10 +1898,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,133 +1910,133 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3287,10 +3293,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ259"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AD262" sqref="AD262"/>
+      <selection pane="bottomLeft" activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -31267,7 +31273,7 @@
         <v>2</v>
       </c>
       <c r="F251" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G251" s="3">
         <v>0</v>
